--- a/Backend/asset-transfer-basic/application-javascript/blockchain/blockchain_hist_DR.xlsx
+++ b/Backend/asset-transfer-basic/application-javascript/blockchain/blockchain_hist_DR.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -954,9 +954,23 @@
         <v>beb8a20b2bd4e56c109241e3a003c3f9a1b761a6ff7f46d7d3bd82e92b81e561</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="str">
+        <v>06.03.2023 13:04 (CET)</v>
+      </c>
+      <c r="C42" t="str">
+        <v>{"ProposedVersion":"https://github.com/tibonto/dr/commit/427f690a506c4404aebf3dbb532def01b5d895cd","UpdatedVersion":"https://github.com/tibonto/dr/commit/427f690a506c4404aebf3dbb532def01b5d895cd","Domain":"Battery Management System","LobeOwner":"member3","Result":"accept by lobe owner"}</v>
+      </c>
+      <c r="D42" t="str">
+        <v>27afca3e10d70a277047747a07b82c5a2e334d324b9927ea2036cbe980875aaa</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D42"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Backend/asset-transfer-basic/application-javascript/blockchain/blockchain_hist_DR.xlsx
+++ b/Backend/asset-transfer-basic/application-javascript/blockchain/blockchain_hist_DR.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -968,9 +968,23 @@
         <v>27afca3e10d70a277047747a07b82c5a2e334d324b9927ea2036cbe980875aaa</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="str">
+        <v>12.05.2023 15:46 (CET)</v>
+      </c>
+      <c r="C43" t="str">
+        <v>{"ProposedVersion":"https://github.com/tibonto/dr/commit/39bc5ee3b8e4774e66bfc7e7150ccfbdc30223a7","UpdatedVersion":"https://github.com/tibonto/dr/commit/39bc5ee3b8e4774e66bfc7e7150ccfbdc30223a7","Domain":"Supply Chain","LobeOwner":"member1","Result":"accept by lobe owner"}</v>
+      </c>
+      <c r="D43" t="str">
+        <v>bec2ce37d057915aa139e80c5803ab7d12843fd7ffa12cb00985da2819e7afe2</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D42"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D43"/>
   </ignoredErrors>
 </worksheet>
 </file>